--- a/分析樑明細表.xlsx
+++ b/分析樑明細表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Cywt-90\檔案庫\人員資料備存\偉豪\2024土水比賽\家瑋\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Cywt-90\檔案庫\人員資料備存\芠昕\BIM競賽\檔案交付\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="390">
   <si>
     <t>分析樑明細表</t>
   </si>
@@ -87,12 +87,6 @@
     <t>2FL大梁 : B16</t>
   </si>
   <si>
-    <t>2FL大梁 : B17</t>
-  </si>
-  <si>
-    <t>2FL大梁 : B18</t>
-  </si>
-  <si>
     <t>2FL大梁 : B19</t>
   </si>
   <si>
@@ -282,12 +276,6 @@
     <t>3FL大梁 : B16</t>
   </si>
   <si>
-    <t>3FL大梁 : B17</t>
-  </si>
-  <si>
-    <t>3FL大梁 : B18</t>
-  </si>
-  <si>
     <t>3FL大梁 : B19</t>
   </si>
   <si>
@@ -471,9 +459,6 @@
     <t>R1F大梁 : B15</t>
   </si>
   <si>
-    <t>R1F大梁 : B16</t>
-  </si>
-  <si>
     <t>R1F大梁 : B17</t>
   </si>
   <si>
@@ -1180,9 +1165,6 @@
   </si>
   <si>
     <t>小梁 : 1g13</t>
-  </si>
-  <si>
-    <t>小梁 : br1</t>
   </si>
   <si>
     <t>小梁 : br2</t>
@@ -1862,13 +1844,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A4:D550" totalsRowCount="1">
-  <autoFilter ref="A4:D549"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A4:D542" totalsRowShown="0">
+  <autoFilter ref="A4:D542"/>
   <tableColumns count="4">
     <tableColumn id="1" name="欄1"/>
     <tableColumn id="2" name="欄2"/>
-    <tableColumn id="3" name="欄3" totalsRowFunction="sum"/>
-    <tableColumn id="4" name="欄4" totalsRowFunction="sum"/>
+    <tableColumn id="3" name="欄3"/>
+    <tableColumn id="4" name="欄4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2137,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G550"/>
+  <dimension ref="A1:D542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2172,16 +2154,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B4" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C4" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D4" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2416,7 +2398,7 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>2.88</v>
+        <v>4.55</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2430,7 +2412,7 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>2.82</v>
+        <v>4.54</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2444,7 +2426,7 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>4.55</v>
+        <v>3.01</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2458,7 +2440,7 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <v>4.54</v>
+        <v>3.97</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2472,7 +2454,7 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>3.01</v>
+        <v>4.59</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2486,7 +2468,7 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>3.97</v>
+        <v>3.4</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2500,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>4.59</v>
+        <v>3.87</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2542,7 +2524,7 @@
         <v>6</v>
       </c>
       <c r="C30">
-        <v>3.4</v>
+        <v>3.33</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2556,7 +2538,7 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>3.87</v>
+        <v>3.96</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2570,7 +2552,7 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <v>3.33</v>
+        <v>3.4</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2584,7 +2566,7 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>3.94</v>
+        <v>3.87</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2598,7 +2580,7 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>3.4</v>
+        <v>3.97</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2612,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>3.87</v>
+        <v>4.59</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2682,7 +2664,7 @@
         <v>6</v>
       </c>
       <c r="C40">
-        <v>3.97</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2696,7 +2678,7 @@
         <v>6</v>
       </c>
       <c r="C41">
-        <v>4.59</v>
+        <v>2.16</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2710,7 +2692,7 @@
         <v>6</v>
       </c>
       <c r="C42">
-        <v>2.2400000000000002</v>
+        <v>1.19</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -2724,7 +2706,7 @@
         <v>6</v>
       </c>
       <c r="C43">
-        <v>2.16</v>
+        <v>1.3</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2738,7 +2720,7 @@
         <v>6</v>
       </c>
       <c r="C44">
-        <v>1.19</v>
+        <v>3.28</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2752,7 +2734,7 @@
         <v>6</v>
       </c>
       <c r="C45">
-        <v>1.3</v>
+        <v>3.25</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2766,7 +2748,7 @@
         <v>6</v>
       </c>
       <c r="C46">
-        <v>3.28</v>
+        <v>0.72</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -2774,13 +2756,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
       <c r="C47">
-        <v>3.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2788,13 +2770,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
       </c>
       <c r="C48">
-        <v>0.72</v>
+        <v>0.37</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2802,13 +2784,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
       </c>
       <c r="C49">
-        <v>0.28000000000000003</v>
+        <v>1.93</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2822,7 +2804,7 @@
         <v>6</v>
       </c>
       <c r="C50">
-        <v>0.37</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2836,7 +2818,7 @@
         <v>6</v>
       </c>
       <c r="C51">
-        <v>1.93</v>
+        <v>2.16</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -2850,7 +2832,7 @@
         <v>6</v>
       </c>
       <c r="C52">
-        <v>2.2400000000000002</v>
+        <v>1.56</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2864,7 +2846,7 @@
         <v>6</v>
       </c>
       <c r="C53">
-        <v>2.16</v>
+        <v>1.74</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2878,7 +2860,7 @@
         <v>6</v>
       </c>
       <c r="C54">
-        <v>1.56</v>
+        <v>3.28</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2892,7 +2874,7 @@
         <v>6</v>
       </c>
       <c r="C55">
-        <v>1.74</v>
+        <v>3.25</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2906,7 +2888,7 @@
         <v>6</v>
       </c>
       <c r="C56">
-        <v>3.28</v>
+        <v>1.24</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2920,7 +2902,7 @@
         <v>6</v>
       </c>
       <c r="C57">
-        <v>3.25</v>
+        <v>0.64</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2934,7 +2916,7 @@
         <v>6</v>
       </c>
       <c r="C58">
-        <v>1.24</v>
+        <v>0.64</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2948,7 +2930,7 @@
         <v>6</v>
       </c>
       <c r="C59">
-        <v>0.64</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2962,7 +2944,7 @@
         <v>6</v>
       </c>
       <c r="C60">
-        <v>0.64</v>
+        <v>1.03</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -2976,7 +2958,7 @@
         <v>6</v>
       </c>
       <c r="C61">
-        <v>0.55000000000000004</v>
+        <v>0.64</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2984,13 +2966,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
       <c r="C62">
-        <v>1.03</v>
+        <v>0.65</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2998,13 +2980,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
       <c r="C63">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -3012,13 +2994,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
       <c r="C64">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -3026,13 +3008,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
       </c>
       <c r="C65">
-        <v>0.65</v>
+        <v>0.69</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -3040,13 +3022,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
       <c r="C66">
-        <v>0.64</v>
+        <v>0.69</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -3054,13 +3036,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67">
-        <v>0.69</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -3068,13 +3050,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
       <c r="C68">
-        <v>0.69</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -3082,7 +3064,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -3096,13 +3078,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
       </c>
       <c r="C70">
-        <v>0.55000000000000004</v>
+        <v>1.03</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -3110,13 +3092,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
       <c r="C71">
-        <v>0.55000000000000004</v>
+        <v>1.04</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -3124,13 +3106,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
       </c>
       <c r="C72">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -3138,13 +3120,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
       <c r="C73">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -3152,13 +3134,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
       </c>
       <c r="C74">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -3166,13 +3148,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
       <c r="C75">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -3186,7 +3168,7 @@
         <v>6</v>
       </c>
       <c r="C76">
-        <v>1.03</v>
+        <v>0.34</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -3200,7 +3182,7 @@
         <v>6</v>
       </c>
       <c r="C77">
-        <v>1.06</v>
+        <v>0.59</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -3208,13 +3190,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
       <c r="C78">
-        <v>0.34</v>
+        <v>0.59</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -3222,13 +3204,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" t="s">
         <v>69</v>
       </c>
-      <c r="B79" t="s">
-        <v>6</v>
-      </c>
       <c r="C79">
-        <v>0.59</v>
+        <v>3.1</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -3236,13 +3218,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" t="s">
         <v>69</v>
       </c>
-      <c r="B80" t="s">
-        <v>6</v>
-      </c>
       <c r="C80">
-        <v>0.59</v>
+        <v>2.99</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -3250,13 +3232,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C81">
-        <v>3.1</v>
+        <v>1.32</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -3267,10 +3249,10 @@
         <v>72</v>
       </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C82">
-        <v>3.12</v>
+        <v>1.32</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -3281,10 +3263,10 @@
         <v>73</v>
       </c>
       <c r="B83" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C83">
-        <v>1.32</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -3295,10 +3277,10 @@
         <v>74</v>
       </c>
       <c r="B84" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C84">
-        <v>1.32</v>
+        <v>4.04</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -3309,10 +3291,10 @@
         <v>75</v>
       </c>
       <c r="B85" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C85">
-        <v>4.0599999999999996</v>
+        <v>2.68</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -3323,10 +3305,10 @@
         <v>76</v>
       </c>
       <c r="B86" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C86">
-        <v>4.04</v>
+        <v>3.1</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -3337,10 +3319,10 @@
         <v>77</v>
       </c>
       <c r="B87" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C87">
-        <v>2.68</v>
+        <v>3.12</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -3351,10 +3333,10 @@
         <v>78</v>
       </c>
       <c r="B88" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C88">
-        <v>3.1</v>
+        <v>1.92</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -3365,10 +3347,10 @@
         <v>79</v>
       </c>
       <c r="B89" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C89">
-        <v>3.12</v>
+        <v>1.9</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -3379,10 +3361,10 @@
         <v>80</v>
       </c>
       <c r="B90" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C90">
-        <v>1.92</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -3393,10 +3375,10 @@
         <v>81</v>
       </c>
       <c r="B91" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C91">
-        <v>1.9</v>
+        <v>4.04</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -3407,10 +3389,10 @@
         <v>82</v>
       </c>
       <c r="B92" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C92">
-        <v>4.0599999999999996</v>
+        <v>2.68</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -3421,10 +3403,10 @@
         <v>83</v>
       </c>
       <c r="B93" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C93">
-        <v>4.04</v>
+        <v>3.1</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -3435,10 +3417,10 @@
         <v>84</v>
       </c>
       <c r="B94" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C94">
-        <v>2.68</v>
+        <v>3.12</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -3449,10 +3431,10 @@
         <v>85</v>
       </c>
       <c r="B95" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C95">
-        <v>3.1</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -3463,10 +3445,10 @@
         <v>86</v>
       </c>
       <c r="B96" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C96">
-        <v>3.12</v>
+        <v>4.04</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -3477,10 +3459,10 @@
         <v>87</v>
       </c>
       <c r="B97" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C97">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -3491,10 +3473,10 @@
         <v>88</v>
       </c>
       <c r="B98" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C98">
-        <v>2.57</v>
+        <v>4.08</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -3505,10 +3487,10 @@
         <v>89</v>
       </c>
       <c r="B99" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C99">
-        <v>4.0599999999999996</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -3519,10 +3501,10 @@
         <v>90</v>
       </c>
       <c r="B100" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C100">
-        <v>4.04</v>
+        <v>3.1</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -3533,10 +3515,10 @@
         <v>91</v>
       </c>
       <c r="B101" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C101">
-        <v>2.68</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -3544,13 +3526,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B102" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C102">
-        <v>4.08</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -3558,13 +3540,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B103" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C103">
-        <v>4.6399999999999997</v>
+        <v>3.1</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -3572,13 +3554,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B104" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C104">
-        <v>3.1</v>
+        <v>3.48</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -3586,13 +3568,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B105" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C105">
-        <v>2.2200000000000002</v>
+        <v>3.04</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -3603,10 +3585,10 @@
         <v>95</v>
       </c>
       <c r="B106" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C106">
-        <v>1.1399999999999999</v>
+        <v>3.52</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -3617,7 +3599,7 @@
         <v>96</v>
       </c>
       <c r="B107" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C107">
         <v>3.1</v>
@@ -3631,7 +3613,7 @@
         <v>97</v>
       </c>
       <c r="B108" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C108">
         <v>3.48</v>
@@ -3645,10 +3627,10 @@
         <v>98</v>
       </c>
       <c r="B109" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C109">
-        <v>3.04</v>
+        <v>3.4</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -3659,10 +3641,10 @@
         <v>99</v>
       </c>
       <c r="B110" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C110">
-        <v>3.56</v>
+        <v>3.87</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -3673,10 +3655,10 @@
         <v>100</v>
       </c>
       <c r="B111" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C111">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -3687,10 +3669,10 @@
         <v>101</v>
       </c>
       <c r="B112" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C112">
-        <v>3.48</v>
+        <v>3.87</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -3701,10 +3683,10 @@
         <v>102</v>
       </c>
       <c r="B113" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C113">
-        <v>3.4</v>
+        <v>4.08</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -3715,10 +3697,10 @@
         <v>103</v>
       </c>
       <c r="B114" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C114">
-        <v>3.87</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -3729,10 +3711,10 @@
         <v>104</v>
       </c>
       <c r="B115" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C115">
-        <v>3.4</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -3743,10 +3725,10 @@
         <v>105</v>
       </c>
       <c r="B116" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C116">
-        <v>3.87</v>
+        <v>1.77</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -3754,13 +3736,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B117" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C117">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -3768,13 +3750,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B118" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C118">
-        <v>4.6399999999999997</v>
+        <v>1.17</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -3782,13 +3764,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B119" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C119">
-        <v>2.23</v>
+        <v>1.3</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -3796,13 +3778,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B120" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C120">
-        <v>2.1800000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -3810,13 +3792,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B121" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C121">
-        <v>1.17</v>
+        <v>3.26</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -3824,13 +3806,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B122" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C122">
-        <v>1.3</v>
+        <v>0.73</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -3838,13 +3820,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B123" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C123">
-        <v>3.3</v>
+        <v>0.37</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -3852,13 +3834,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B124" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C124">
-        <v>3.26</v>
+        <v>1.96</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -3866,13 +3848,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B125" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C125">
-        <v>0.73</v>
+        <v>2.23</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -3880,13 +3862,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B126" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C126">
-        <v>0.37</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -3894,13 +3876,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B127" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C127">
-        <v>1.96</v>
+        <v>1.55</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -3908,13 +3890,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B128" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C128">
-        <v>2.23</v>
+        <v>1.73</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -3922,13 +3904,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B129" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C129">
-        <v>2.3199999999999998</v>
+        <v>3.3</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -3936,13 +3918,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B130" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C130">
-        <v>1.55</v>
+        <v>3.26</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -3950,13 +3932,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B131" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C131">
-        <v>1.73</v>
+        <v>1.26</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -3964,13 +3946,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B132" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C132">
-        <v>3.3</v>
+        <v>0.67</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -3978,13 +3960,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B133" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C133">
-        <v>3.26</v>
+        <v>0.71</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -3992,13 +3974,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B134" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C134">
-        <v>1.26</v>
+        <v>0.54</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -4006,13 +3988,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B135" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C135">
-        <v>0.62</v>
+        <v>1.04</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -4020,13 +4002,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B136" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C136">
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -4034,13 +4016,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B137" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C137">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -4048,13 +4030,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B138" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C138">
-        <v>1.04</v>
+        <v>0.65</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -4062,13 +4044,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B139" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C139">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -4076,13 +4058,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B140" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C140">
-        <v>0.63</v>
+        <v>0.7</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -4090,13 +4072,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B141" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C141">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -4104,13 +4086,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B142" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C142">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -4118,13 +4100,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B143" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C143">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -4132,13 +4114,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B144" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C144">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -4146,13 +4128,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B145" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C145">
-        <v>0.7</v>
+        <v>0.52</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -4160,13 +4142,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B146" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C146">
-        <v>0.72</v>
+        <v>0.52</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -4174,13 +4156,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B147" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C147">
-        <v>0.72</v>
+        <v>0.51</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -4188,10 +4170,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B148" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C148">
         <v>0.52</v>
@@ -4202,13 +4184,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B149" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C149">
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -4216,13 +4198,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B150" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C150">
-        <v>0.51</v>
+        <v>1.04</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -4230,13 +4212,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B151" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C151">
-        <v>0.52</v>
+        <v>1.04</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -4244,13 +4226,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B152" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C152">
-        <v>0.4</v>
+        <v>1.04</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -4258,10 +4240,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B153" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C153">
         <v>1.04</v>
@@ -4272,13 +4254,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B154" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C154">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -4286,13 +4268,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B155" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C155">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -4300,13 +4282,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B156" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C156">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -4314,13 +4296,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B157" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C157">
-        <v>1.03</v>
+        <v>0.34</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -4328,13 +4310,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B158" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C158">
-        <v>1.03</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -4342,13 +4324,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B159" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C159">
-        <v>1.06</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -4356,13 +4338,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B160" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="C160">
-        <v>0.34</v>
+        <v>2.73</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -4370,13 +4352,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B161" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="C161">
-        <v>0.56999999999999995</v>
+        <v>1.19</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -4387,10 +4369,10 @@
         <v>133</v>
       </c>
       <c r="B162" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="C162">
-        <v>0.56999999999999995</v>
+        <v>1.32</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -4401,10 +4383,10 @@
         <v>134</v>
       </c>
       <c r="B163" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C163">
-        <v>2.73</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -4412,13 +4394,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B164" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C164">
-        <v>1.19</v>
+        <v>4.04</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -4426,13 +4408,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B165" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C165">
-        <v>1.32</v>
+        <v>2.68</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -4440,13 +4422,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B166" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C166">
-        <v>4.0599999999999996</v>
+        <v>2.73</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -4454,13 +4436,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B167" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C167">
-        <v>4.04</v>
+        <v>1.68</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -4468,13 +4450,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B168" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C168">
-        <v>2.68</v>
+        <v>1.9</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -4482,13 +4464,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B169" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C169">
-        <v>2.73</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -4496,13 +4478,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B170" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C170">
-        <v>1.68</v>
+        <v>4.04</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -4510,13 +4492,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B171" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C171">
-        <v>1.9</v>
+        <v>2.68</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -4524,13 +4506,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B172" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C172">
-        <v>4.0599999999999996</v>
+        <v>2.71</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -4538,13 +4520,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B173" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C173">
-        <v>4.04</v>
+        <v>2.73</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -4552,13 +4534,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B174" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C174">
-        <v>2.68</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -4566,13 +4548,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B175" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C175">
-        <v>2.71</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -4580,13 +4562,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B176" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C176">
-        <v>2.73</v>
+        <v>4.04</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -4594,13 +4576,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B177" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C177">
-        <v>2.2799999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -4608,13 +4590,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B178" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C178">
-        <v>2.57</v>
+        <v>1.78</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -4622,13 +4604,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B179" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C179">
-        <v>4.0599999999999996</v>
+        <v>2.71</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -4636,13 +4618,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B180" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C180">
-        <v>4.04</v>
+        <v>3.04</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -4650,13 +4632,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B181" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C181">
-        <v>2.68</v>
+        <v>2.71</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -4664,13 +4646,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B182" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C182">
-        <v>1.78</v>
+        <v>3.04</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -4678,13 +4660,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B183" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C183">
-        <v>2.71</v>
+        <v>2.66</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -4692,13 +4674,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B184" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C184">
-        <v>3.04</v>
+        <v>3.12</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -4706,10 +4688,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B185" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C185">
         <v>2.71</v>
@@ -4720,13 +4702,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B186" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C186">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -4734,13 +4716,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B187" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C187">
-        <v>2.66</v>
+        <v>3.01</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -4748,13 +4730,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B188" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C188">
-        <v>3.12</v>
+        <v>3.02</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -4762,13 +4744,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B189" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C189">
-        <v>2.71</v>
+        <v>3.44</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -4776,13 +4758,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B190" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C190">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -4790,13 +4772,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B191" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C191">
-        <v>3.01</v>
+        <v>3.44</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -4804,13 +4786,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B192" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C192">
-        <v>3.02</v>
+        <v>0.74</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -4818,13 +4800,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B193" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C193">
-        <v>3.44</v>
+        <v>0.52</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -4832,13 +4814,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B194" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C194">
-        <v>3.02</v>
+        <v>1.99</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -4846,13 +4828,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B195" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C195">
-        <v>3.44</v>
+        <v>3.19</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -4860,13 +4842,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B196" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C196">
-        <v>0.74</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -4874,13 +4856,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B197" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C197">
-        <v>0.52</v>
+        <v>2.21</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -4888,13 +4870,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B198" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C198">
-        <v>1.99</v>
+        <v>1.56</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -4902,13 +4884,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B199" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C199">
-        <v>3.24</v>
+        <v>1.8</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -4916,13 +4898,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B200" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C200">
-        <v>2.2000000000000002</v>
+        <v>3.32</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -4930,13 +4912,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B201" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C201">
-        <v>2.21</v>
+        <v>3.26</v>
       </c>
       <c r="D201">
         <v>1</v>
@@ -4944,13 +4926,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B202" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C202">
-        <v>1.56</v>
+        <v>2.27</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -4958,13 +4940,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B203" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C203">
-        <v>1.8</v>
+        <v>0.99</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -4972,13 +4954,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B204" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C204">
-        <v>3.32</v>
+        <v>0.99</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -4986,13 +4968,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B205" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C205">
-        <v>3.26</v>
+        <v>1.06</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -5000,13 +4982,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B206" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C206">
-        <v>2.27</v>
+        <v>0.75</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -5014,13 +4996,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B207" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C207">
-        <v>0.99</v>
+        <v>0.34</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -5028,13 +5010,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B208" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C208">
-        <v>0.99</v>
+        <v>0.39</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -5042,13 +5024,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B209" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C209">
-        <v>1.06</v>
+        <v>0.99</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -5056,13 +5038,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B210" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C210">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -5070,13 +5052,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B211" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C211">
-        <v>0.34</v>
+        <v>0.99</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -5084,13 +5066,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B212" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C212">
-        <v>0.39</v>
+        <v>1.4</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -5098,13 +5080,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B213" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C213">
-        <v>0.99</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -5112,10 +5094,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B214" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C214">
         <v>0.99</v>
@@ -5126,10 +5108,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B215" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C215">
         <v>0.99</v>
@@ -5140,13 +5122,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B216" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C216">
-        <v>1.4</v>
+        <v>0.99</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -5154,13 +5136,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B217" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C217">
-        <v>0.56999999999999995</v>
+        <v>0.99</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -5168,10 +5150,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B218" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C218">
         <v>0.99</v>
@@ -5182,13 +5164,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B219" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="C219">
-        <v>0.99</v>
+        <v>2.73</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -5196,13 +5178,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B220" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="C220">
-        <v>0.98</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -5210,13 +5192,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B221" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="C221">
-        <v>0.99</v>
+        <v>1.32</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -5227,10 +5209,10 @@
         <v>186</v>
       </c>
       <c r="B222" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="C222">
-        <v>0.99</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -5241,10 +5223,10 @@
         <v>187</v>
       </c>
       <c r="B223" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C223">
-        <v>2.73</v>
+        <v>4.04</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -5252,13 +5234,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B224" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C224">
-        <v>1.1599999999999999</v>
+        <v>2.68</v>
       </c>
       <c r="D224">
         <v>1</v>
@@ -5266,13 +5248,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B225" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C225">
-        <v>1.32</v>
+        <v>2.73</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -5280,13 +5262,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B226" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C226">
-        <v>4.0599999999999996</v>
+        <v>1.68</v>
       </c>
       <c r="D226">
         <v>1</v>
@@ -5294,13 +5276,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B227" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C227">
-        <v>4.04</v>
+        <v>1.89</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -5308,13 +5290,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B228" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C228">
-        <v>2.68</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -5322,13 +5304,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B229" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C229">
-        <v>2.73</v>
+        <v>4.04</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -5336,13 +5318,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B230" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C230">
-        <v>1.68</v>
+        <v>2.68</v>
       </c>
       <c r="D230">
         <v>1</v>
@@ -5350,13 +5332,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B231" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C231">
-        <v>1.89</v>
+        <v>2.09</v>
       </c>
       <c r="D231">
         <v>1</v>
@@ -5364,13 +5346,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B232" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C232">
-        <v>4.0599999999999996</v>
+        <v>1.9</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -5378,13 +5360,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B233" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C233">
-        <v>4.04</v>
+        <v>2.71</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -5392,13 +5374,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B234" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C234">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -5406,13 +5388,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B235" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C235">
-        <v>2.14</v>
+        <v>2.71</v>
       </c>
       <c r="D235">
         <v>1</v>
@@ -5420,13 +5402,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B236" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C236">
-        <v>2.71</v>
+        <v>2.64</v>
       </c>
       <c r="D236">
         <v>1</v>
@@ -5434,13 +5416,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B237" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C237">
-        <v>2.71</v>
+        <v>2.06</v>
       </c>
       <c r="D237">
         <v>1</v>
@@ -5448,13 +5430,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B238" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C238">
-        <v>2.66</v>
+        <v>0.38</v>
       </c>
       <c r="D238">
         <v>1</v>
@@ -5462,13 +5444,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B239" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C239">
-        <v>2.71</v>
+        <v>1.5</v>
       </c>
       <c r="D239">
         <v>1</v>
@@ -5476,13 +5458,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B240" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C240">
-        <v>2.64</v>
+        <v>0.38</v>
       </c>
       <c r="D240">
         <v>1</v>
@@ -5490,13 +5472,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B241" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C241">
-        <v>2.64</v>
+        <v>2.21</v>
       </c>
       <c r="D241">
         <v>1</v>
@@ -5504,13 +5486,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B242" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C242">
-        <v>0.77</v>
+        <v>1.21</v>
       </c>
       <c r="D242">
         <v>1</v>
@@ -5518,13 +5500,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B243" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C243">
-        <v>2.64</v>
+        <v>1.39</v>
       </c>
       <c r="D243">
         <v>1</v>
@@ -5532,13 +5514,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B244" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C244">
-        <v>0.76</v>
+        <v>3.32</v>
       </c>
       <c r="D244">
         <v>1</v>
@@ -5546,13 +5528,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B245" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C245">
-        <v>2.21</v>
+        <v>3.28</v>
       </c>
       <c r="D245">
         <v>1</v>
@@ -5560,13 +5542,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B246" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C246">
-        <v>1.21</v>
+        <v>0.1</v>
       </c>
       <c r="D246">
         <v>1</v>
@@ -5574,13 +5556,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B247" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C247">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="D247">
         <v>1</v>
@@ -5588,13 +5570,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B248" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C248">
-        <v>3.32</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="D248">
         <v>1</v>
@@ -5602,13 +5584,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B249" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C249">
-        <v>3.32</v>
+        <v>0.39</v>
       </c>
       <c r="D249">
         <v>1</v>
@@ -5616,13 +5598,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B250" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C250">
-        <v>0.1</v>
+        <v>0.39</v>
       </c>
       <c r="D250">
         <v>1</v>
@@ -5630,13 +5612,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B251" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C251">
-        <v>2.2799999999999998</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D251">
         <v>1</v>
@@ -5644,13 +5626,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B252" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C252">
-        <v>2.2799999999999998</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D252">
         <v>1</v>
@@ -5658,13 +5640,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B253" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C253">
-        <v>0.79</v>
+        <v>0.52</v>
       </c>
       <c r="D253">
         <v>1</v>
@@ -5672,13 +5654,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B254" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C254">
-        <v>0.79</v>
+        <v>0.52</v>
       </c>
       <c r="D254">
         <v>1</v>
@@ -5686,13 +5668,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B255" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C255">
-        <v>1.1599999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="D255">
         <v>1</v>
@@ -5700,13 +5682,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B256" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C256">
-        <v>1.1399999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="D256">
         <v>1</v>
@@ -5714,13 +5696,13 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B257" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C257">
-        <v>1.03</v>
+        <v>0.51</v>
       </c>
       <c r="D257">
         <v>1</v>
@@ -5728,13 +5710,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B258" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C258">
-        <v>1.04</v>
+        <v>0.2</v>
       </c>
       <c r="D258">
         <v>1</v>
@@ -5742,13 +5724,13 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B259" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C259">
-        <v>1.04</v>
+        <v>0.2</v>
       </c>
       <c r="D259">
         <v>1</v>
@@ -5756,13 +5738,13 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B260" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C260">
-        <v>1.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D260">
         <v>1</v>
@@ -5770,13 +5752,13 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B261" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C261">
-        <v>1.53</v>
+        <v>0.52</v>
       </c>
       <c r="D261">
         <v>1</v>
@@ -5784,13 +5766,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B262" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C262">
-        <v>0.2</v>
+        <v>1.24</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -5798,13 +5780,13 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B263" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C263">
-        <v>0.2</v>
+        <v>1.26</v>
       </c>
       <c r="D263">
         <v>1</v>
@@ -5812,13 +5794,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B264" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C264">
-        <v>0.34</v>
+        <v>1.26</v>
       </c>
       <c r="D264">
         <v>1</v>
@@ -5826,13 +5808,13 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B265" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C265">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="D265">
         <v>1</v>
@@ -5840,13 +5822,13 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B266" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C266">
-        <v>1.24</v>
+        <v>0.85</v>
       </c>
       <c r="D266">
         <v>1</v>
@@ -5854,13 +5836,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B267" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C267">
-        <v>1.26</v>
+        <v>0.84</v>
       </c>
       <c r="D267">
         <v>1</v>
@@ -5868,13 +5850,13 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B268" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C268">
-        <v>1.26</v>
+        <v>0.9</v>
       </c>
       <c r="D268">
         <v>1</v>
@@ -5882,13 +5864,13 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B269" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C269">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="D269">
         <v>1</v>
@@ -5896,13 +5878,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B270" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C270">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="D270">
         <v>1</v>
@@ -5910,13 +5892,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B271" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C271">
-        <v>0.84</v>
+        <v>0.73</v>
       </c>
       <c r="D271">
         <v>1</v>
@@ -5924,13 +5906,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B272" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C272">
-        <v>0.94</v>
+        <v>1.05</v>
       </c>
       <c r="D272">
         <v>1</v>
@@ -5938,13 +5920,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B273" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C273">
-        <v>0.94</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -5952,13 +5934,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B274" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C274">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="D274">
         <v>1</v>
@@ -5966,13 +5948,13 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B275" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C275">
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -5980,13 +5962,13 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B276" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C276">
-        <v>1.1000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D276">
         <v>1</v>
@@ -5994,13 +5976,13 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B277" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C277">
-        <v>1.17</v>
+        <v>0.2</v>
       </c>
       <c r="D277">
         <v>1</v>
@@ -6008,13 +5990,13 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B278" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="C278">
-        <v>1.1000000000000001</v>
+        <v>10.98</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -6025,10 +6007,10 @@
         <v>235</v>
       </c>
       <c r="B279" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="C279">
-        <v>1.1000000000000001</v>
+        <v>10.06</v>
       </c>
       <c r="D279">
         <v>1</v>
@@ -6039,10 +6021,10 @@
         <v>236</v>
       </c>
       <c r="B280" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="C280">
-        <v>0.45</v>
+        <v>7.17</v>
       </c>
       <c r="D280">
         <v>1</v>
@@ -6053,10 +6035,10 @@
         <v>237</v>
       </c>
       <c r="B281" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="C281">
-        <v>0.45</v>
+        <v>5.71</v>
       </c>
       <c r="D281">
         <v>1</v>
@@ -6067,10 +6049,10 @@
         <v>238</v>
       </c>
       <c r="B282" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C282">
-        <v>10.98</v>
+        <v>12.96</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -6078,13 +6060,13 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B283" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C283">
-        <v>10.06</v>
+        <v>12.96</v>
       </c>
       <c r="D283">
         <v>1</v>
@@ -6092,13 +6074,13 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B284" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C284">
-        <v>7.17</v>
+        <v>7.98</v>
       </c>
       <c r="D284">
         <v>1</v>
@@ -6106,13 +6088,13 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B285" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C285">
-        <v>5.71</v>
+        <v>10.98</v>
       </c>
       <c r="D285">
         <v>1</v>
@@ -6120,13 +6102,13 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B286" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C286">
-        <v>12.96</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="D286">
         <v>1</v>
@@ -6134,13 +6116,13 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B287" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C287">
-        <v>12.96</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="D287">
         <v>1</v>
@@ -6148,13 +6130,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B288" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C288">
-        <v>7.98</v>
+        <v>7.38</v>
       </c>
       <c r="D288">
         <v>1</v>
@@ -6162,13 +6144,13 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B289" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C289">
-        <v>10.98</v>
+        <v>12.96</v>
       </c>
       <c r="D289">
         <v>1</v>
@@ -6176,13 +6158,13 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B290" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C290">
-        <v>10.050000000000001</v>
+        <v>12.96</v>
       </c>
       <c r="D290">
         <v>1</v>
@@ -6190,13 +6172,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B291" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C291">
-        <v>8.69</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -6204,13 +6186,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B292" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C292">
-        <v>8.43</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="D292">
         <v>1</v>
@@ -6218,13 +6200,13 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B293" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C293">
-        <v>12.96</v>
+        <v>7.94</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -6232,13 +6214,13 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B294" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C294">
-        <v>12.96</v>
+        <v>8.64</v>
       </c>
       <c r="D294">
         <v>1</v>
@@ -6246,13 +6228,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B295" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C295">
-        <v>9.7799999999999994</v>
+        <v>7.81</v>
       </c>
       <c r="D295">
         <v>1</v>
@@ -6260,13 +6242,13 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B296" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C296">
-        <v>8.0299999999999994</v>
+        <v>10.5</v>
       </c>
       <c r="D296">
         <v>1</v>
@@ -6274,13 +6256,13 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B297" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C297">
-        <v>7.94</v>
+        <v>10.5</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -6288,13 +6270,13 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B298" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C298">
-        <v>8.64</v>
+        <v>6.98</v>
       </c>
       <c r="D298">
         <v>1</v>
@@ -6302,13 +6284,13 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B299" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C299">
-        <v>7.81</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -6316,13 +6298,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B300" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C300">
-        <v>10.5</v>
+        <v>10.33</v>
       </c>
       <c r="D300">
         <v>1</v>
@@ -6330,13 +6312,13 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B301" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C301">
-        <v>10.5</v>
+        <v>8.06</v>
       </c>
       <c r="D301">
         <v>1</v>
@@ -6344,13 +6326,13 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B302" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C302">
-        <v>6.98</v>
+        <v>5.55</v>
       </c>
       <c r="D302">
         <v>1</v>
@@ -6358,13 +6340,13 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B303" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C303">
-        <v>9.9600000000000009</v>
+        <v>10.89</v>
       </c>
       <c r="D303">
         <v>1</v>
@@ -6372,13 +6354,13 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B304" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C304">
-        <v>10.33</v>
+        <v>10.36</v>
       </c>
       <c r="D304">
         <v>1</v>
@@ -6386,13 +6368,13 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B305" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C305">
-        <v>8.06</v>
+        <v>8.01</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -6400,13 +6382,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B306" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C306">
-        <v>5.55</v>
+        <v>6.43</v>
       </c>
       <c r="D306">
         <v>1</v>
@@ -6414,13 +6396,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B307" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C307">
-        <v>10.89</v>
+        <v>9.23</v>
       </c>
       <c r="D307">
         <v>1</v>
@@ -6428,13 +6410,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B308" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C308">
-        <v>10.36</v>
+        <v>11.53</v>
       </c>
       <c r="D308">
         <v>1</v>
@@ -6442,13 +6424,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B309" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C309">
-        <v>8.01</v>
+        <v>7.24</v>
       </c>
       <c r="D309">
         <v>1</v>
@@ -6456,13 +6438,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B310" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C310">
-        <v>6.43</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -6470,13 +6452,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B311" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C311">
-        <v>9.23</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="D311">
         <v>1</v>
@@ -6484,13 +6466,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B312" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C312">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="D312">
         <v>1</v>
@@ -6498,13 +6480,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B313" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C313">
-        <v>7.04</v>
+        <v>7.92</v>
       </c>
       <c r="D313">
         <v>1</v>
@@ -6512,13 +6494,13 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B314" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C314">
-        <v>4.8899999999999997</v>
+        <v>5.52</v>
       </c>
       <c r="D314">
         <v>1</v>
@@ -6526,10 +6508,10 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B315" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C315">
         <v>9.9600000000000009</v>
@@ -6540,10 +6522,10 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B316" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C316">
         <v>10.5</v>
@@ -6554,13 +6536,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B317" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C317">
-        <v>7.92</v>
+        <v>7.08</v>
       </c>
       <c r="D317">
         <v>1</v>
@@ -6568,13 +6550,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B318" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C318">
-        <v>5.52</v>
+        <v>6.36</v>
       </c>
       <c r="D318">
         <v>1</v>
@@ -6582,13 +6564,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B319" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C319">
-        <v>9.9600000000000009</v>
+        <v>15.65</v>
       </c>
       <c r="D319">
         <v>1</v>
@@ -6596,10 +6578,10 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B320" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C320">
         <v>10.5</v>
@@ -6610,13 +6592,13 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B321" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C321">
-        <v>7.08</v>
+        <v>7.92</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -6624,13 +6606,13 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B322" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C322">
-        <v>6.36</v>
+        <v>5.52</v>
       </c>
       <c r="D322">
         <v>1</v>
@@ -6638,13 +6620,13 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B323" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="C323">
-        <v>15.65</v>
+        <v>3.08</v>
       </c>
       <c r="D323">
         <v>1</v>
@@ -6655,10 +6637,10 @@
         <v>281</v>
       </c>
       <c r="B324" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="C324">
-        <v>10.5</v>
+        <v>3.08</v>
       </c>
       <c r="D324">
         <v>1</v>
@@ -6669,10 +6651,10 @@
         <v>282</v>
       </c>
       <c r="B325" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="C325">
-        <v>7.92</v>
+        <v>1.87</v>
       </c>
       <c r="D325">
         <v>1</v>
@@ -6683,10 +6665,10 @@
         <v>283</v>
       </c>
       <c r="B326" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="C326">
-        <v>5.52</v>
+        <v>1.84</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -6697,10 +6679,10 @@
         <v>284</v>
       </c>
       <c r="B327" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C327">
-        <v>3.08</v>
+        <v>4.04</v>
       </c>
       <c r="D327">
         <v>1</v>
@@ -6708,13 +6690,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B328" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C328">
-        <v>3.08</v>
+        <v>4.04</v>
       </c>
       <c r="D328">
         <v>1</v>
@@ -6722,13 +6704,13 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B329" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C329">
-        <v>1.87</v>
+        <v>2.68</v>
       </c>
       <c r="D329">
         <v>1</v>
@@ -6736,13 +6718,13 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B330" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C330">
-        <v>1.84</v>
+        <v>4.43</v>
       </c>
       <c r="D330">
         <v>1</v>
@@ -6750,13 +6732,13 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B331" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C331">
-        <v>4.04</v>
+        <v>4.43</v>
       </c>
       <c r="D331">
         <v>1</v>
@@ -6764,13 +6746,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B332" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C332">
-        <v>4.04</v>
+        <v>3.65</v>
       </c>
       <c r="D332">
         <v>1</v>
@@ -6778,13 +6760,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B333" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C333">
-        <v>2.68</v>
+        <v>3.59</v>
       </c>
       <c r="D333">
         <v>1</v>
@@ -6792,13 +6774,13 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B334" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C334">
-        <v>4.43</v>
+        <v>5.81</v>
       </c>
       <c r="D334">
         <v>1</v>
@@ -6806,13 +6788,13 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B335" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C335">
-        <v>4.43</v>
+        <v>5.81</v>
       </c>
       <c r="D335">
         <v>1</v>
@@ -6820,13 +6802,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B336" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C336">
-        <v>3.92</v>
+        <v>3.85</v>
       </c>
       <c r="D336">
         <v>1</v>
@@ -6834,13 +6816,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B337" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C337">
-        <v>3.32</v>
+        <v>2.87</v>
       </c>
       <c r="D337">
         <v>1</v>
@@ -6848,13 +6830,13 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B338" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C338">
-        <v>5.81</v>
+        <v>2.75</v>
       </c>
       <c r="D338">
         <v>1</v>
@@ -6862,13 +6844,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B339" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C339">
-        <v>5.81</v>
+        <v>2.73</v>
       </c>
       <c r="D339">
         <v>1</v>
@@ -6876,13 +6858,13 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B340" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C340">
-        <v>3.85</v>
+        <v>2.7</v>
       </c>
       <c r="D340">
         <v>1</v>
@@ -6890,13 +6872,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B341" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C341">
-        <v>2.93</v>
+        <v>2.65</v>
       </c>
       <c r="D341">
         <v>1</v>
@@ -6904,13 +6886,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B342" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C342">
-        <v>2.75</v>
+        <v>4.08</v>
       </c>
       <c r="D342">
         <v>1</v>
@@ -6918,13 +6900,13 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B343" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C343">
-        <v>2.73</v>
+        <v>4.08</v>
       </c>
       <c r="D343">
         <v>1</v>
@@ -6932,13 +6914,13 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B344" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C344">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="D344">
         <v>1</v>
@@ -6946,13 +6928,13 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B345" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C345">
-        <v>2.65</v>
+        <v>3.02</v>
       </c>
       <c r="D345">
         <v>1</v>
@@ -6960,13 +6942,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B346" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C346">
-        <v>4.08</v>
+        <v>3.44</v>
       </c>
       <c r="D346">
         <v>1</v>
@@ -6974,13 +6956,13 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B347" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C347">
-        <v>4.08</v>
+        <v>2.44</v>
       </c>
       <c r="D347">
         <v>1</v>
@@ -6988,13 +6970,13 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B348" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C348">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="D348">
         <v>1</v>
@@ -7002,10 +6984,10 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B349" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C349">
         <v>3.02</v>
@@ -7016,10 +6998,10 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B350" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C350">
         <v>3.44</v>
@@ -7030,10 +7012,10 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B351" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C351">
         <v>2.44</v>
@@ -7044,10 +7026,10 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B352" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C352">
         <v>1.6</v>
@@ -7058,13 +7040,13 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B353" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C353">
-        <v>3.02</v>
+        <v>2.96</v>
       </c>
       <c r="D353">
         <v>1</v>
@@ -7072,13 +7054,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B354" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C354">
-        <v>3.44</v>
+        <v>3.52</v>
       </c>
       <c r="D354">
         <v>1</v>
@@ -7086,13 +7068,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B355" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C355">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="D355">
         <v>1</v>
@@ -7100,13 +7082,13 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B356" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C356">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="D356">
         <v>1</v>
@@ -7114,13 +7096,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B357" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C357">
-        <v>2.96</v>
+        <v>3.02</v>
       </c>
       <c r="D357">
         <v>1</v>
@@ -7128,13 +7110,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B358" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C358">
-        <v>3.5</v>
+        <v>3.44</v>
       </c>
       <c r="D358">
         <v>1</v>
@@ -7142,13 +7124,13 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B359" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C359">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="D359">
         <v>1</v>
@@ -7156,13 +7138,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B360" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C360">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="D360">
         <v>1</v>
@@ -7170,13 +7152,13 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B361" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C361">
-        <v>3.02</v>
+        <v>2.94</v>
       </c>
       <c r="D361">
         <v>1</v>
@@ -7184,13 +7166,13 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B362" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C362">
-        <v>3.44</v>
+        <v>3.4</v>
       </c>
       <c r="D362">
         <v>1</v>
@@ -7198,10 +7180,10 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B363" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C363">
         <v>2.4</v>
@@ -7212,10 +7194,10 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B364" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C364">
         <v>1.64</v>
@@ -7226,10 +7208,10 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B365" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C365">
         <v>2.94</v>
@@ -7240,10 +7222,10 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B366" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C366">
         <v>3.4</v>
@@ -7254,10 +7236,10 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B367" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C367">
         <v>2.4</v>
@@ -7268,10 +7250,10 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B368" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C368">
         <v>1.64</v>
@@ -7282,13 +7264,13 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B369" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C369">
-        <v>2.94</v>
+        <v>2.57</v>
       </c>
       <c r="D369">
         <v>1</v>
@@ -7296,13 +7278,13 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B370" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C370">
-        <v>3.4</v>
+        <v>2.97</v>
       </c>
       <c r="D370">
         <v>1</v>
@@ -7310,13 +7292,13 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B371" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C371">
-        <v>2.4</v>
+        <v>0.64</v>
       </c>
       <c r="D371">
         <v>1</v>
@@ -7324,13 +7306,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B372" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C372">
-        <v>1.64</v>
+        <v>0.42</v>
       </c>
       <c r="D372">
         <v>1</v>
@@ -7338,13 +7320,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B373" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C373">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="D373">
         <v>1</v>
@@ -7352,13 +7334,13 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B374" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C374">
-        <v>2.97</v>
+        <v>2.73</v>
       </c>
       <c r="D374">
         <v>1</v>
@@ -7366,13 +7348,13 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B375" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C375">
-        <v>0.64</v>
+        <v>2.99</v>
       </c>
       <c r="D375">
         <v>1</v>
@@ -7380,13 +7362,13 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B376" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C376">
-        <v>0.42</v>
+        <v>2.92</v>
       </c>
       <c r="D376">
         <v>1</v>
@@ -7394,13 +7376,13 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B377" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C377">
-        <v>2.75</v>
+        <v>3.57</v>
       </c>
       <c r="D377">
         <v>1</v>
@@ -7408,13 +7390,13 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B378" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C378">
-        <v>2.73</v>
+        <v>3.57</v>
       </c>
       <c r="D378">
         <v>1</v>
@@ -7422,13 +7404,13 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B379" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C379">
-        <v>2.99</v>
+        <v>2.4</v>
       </c>
       <c r="D379">
         <v>1</v>
@@ -7436,13 +7418,13 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B380" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C380">
-        <v>2.93</v>
+        <v>0.43</v>
       </c>
       <c r="D380">
         <v>1</v>
@@ -7450,13 +7432,13 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B381" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C381">
-        <v>3.57</v>
+        <v>2.1</v>
       </c>
       <c r="D381">
         <v>1</v>
@@ -7464,13 +7446,13 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B382" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C382">
-        <v>3.57</v>
+        <v>2.97</v>
       </c>
       <c r="D382">
         <v>1</v>
@@ -7478,13 +7460,13 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B383" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C383">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="D383">
         <v>1</v>
@@ -7492,13 +7474,13 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B384" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C384">
-        <v>0.43</v>
+        <v>2.34</v>
       </c>
       <c r="D384">
         <v>1</v>
@@ -7506,13 +7488,13 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B385" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C385">
-        <v>2.1</v>
+        <v>3.54</v>
       </c>
       <c r="D385">
         <v>1</v>
@@ -7520,13 +7502,13 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B386" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C386">
-        <v>2.97</v>
+        <v>3.54</v>
       </c>
       <c r="D386">
         <v>1</v>
@@ -7534,13 +7516,13 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B387" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C387">
-        <v>2.57</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D387">
         <v>1</v>
@@ -7548,13 +7530,13 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B388" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C388">
-        <v>2.34</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D388">
         <v>1</v>
@@ -7562,13 +7544,13 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B389" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C389">
-        <v>3.54</v>
+        <v>2.69</v>
       </c>
       <c r="D389">
         <v>1</v>
@@ -7576,13 +7558,13 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B390" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C390">
-        <v>3.54</v>
+        <v>2.7</v>
       </c>
       <c r="D390">
         <v>1</v>
@@ -7590,13 +7572,13 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B391" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="C391">
-        <v>1.1599999999999999</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="D391">
         <v>1</v>
@@ -7604,13 +7586,13 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B392" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="C392">
-        <v>1.1399999999999999</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="D392">
         <v>1</v>
@@ -7618,13 +7600,13 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B393" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="C393">
-        <v>2.69</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D393">
         <v>1</v>
@@ -7632,13 +7614,13 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B394" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="C394">
-        <v>2.7</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D394">
         <v>1</v>
@@ -7646,13 +7628,13 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B395" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C395">
-        <v>2.0099999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="D395">
         <v>1</v>
@@ -7660,13 +7642,13 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B396" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C396">
-        <v>2.0099999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="D396">
         <v>1</v>
@@ -7674,13 +7656,13 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B397" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C397">
-        <v>2.2799999999999998</v>
+        <v>2.19</v>
       </c>
       <c r="D397">
         <v>1</v>
@@ -7688,13 +7670,13 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B398" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C398">
-        <v>2.2799999999999998</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="D398">
         <v>1</v>
@@ -7702,13 +7684,13 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B399" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C399">
-        <v>2.0699999999999998</v>
+        <v>1.41</v>
       </c>
       <c r="D399">
         <v>1</v>
@@ -7716,13 +7698,13 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B400" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C400">
-        <v>2.0699999999999998</v>
+        <v>1</v>
       </c>
       <c r="D400">
         <v>1</v>
@@ -7730,13 +7712,13 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B401" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C401">
-        <v>2.19</v>
+        <v>1</v>
       </c>
       <c r="D401">
         <v>1</v>
@@ -7744,13 +7726,13 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B402" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C402">
-        <v>2.1800000000000002</v>
+        <v>1.41</v>
       </c>
       <c r="D402">
         <v>1</v>
@@ -7758,13 +7740,13 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B403" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C403">
-        <v>1.41</v>
+        <v>1</v>
       </c>
       <c r="D403">
         <v>1</v>
@@ -7772,13 +7754,13 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B404" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C404">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="D404">
         <v>1</v>
@@ -7786,13 +7768,13 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B405" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C405">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="D405">
         <v>1</v>
@@ -7800,13 +7782,13 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B406" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C406">
-        <v>1.41</v>
+        <v>1</v>
       </c>
       <c r="D406">
         <v>1</v>
@@ -7814,13 +7796,13 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B407" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C407">
-        <v>1</v>
+        <v>2.85</v>
       </c>
       <c r="D407">
         <v>1</v>
@@ -7828,13 +7810,13 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B408" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C408">
-        <v>1.4</v>
+        <v>2.85</v>
       </c>
       <c r="D408">
         <v>1</v>
@@ -7842,13 +7824,13 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B409" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C409">
-        <v>1.4</v>
+        <v>2.85</v>
       </c>
       <c r="D409">
         <v>1</v>
@@ -7856,13 +7838,13 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B410" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C410">
-        <v>1</v>
+        <v>3.36</v>
       </c>
       <c r="D410">
         <v>1</v>
@@ -7870,13 +7852,13 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B411" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C411">
-        <v>2.85</v>
+        <v>3.36</v>
       </c>
       <c r="D411">
         <v>1</v>
@@ -7884,13 +7866,13 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B412" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C412">
-        <v>2.85</v>
+        <v>2.34</v>
       </c>
       <c r="D412">
         <v>1</v>
@@ -7898,10 +7880,10 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B413" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C413">
         <v>2.85</v>
@@ -7912,13 +7894,13 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B414" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C414">
-        <v>3.36</v>
+        <v>2.34</v>
       </c>
       <c r="D414">
         <v>1</v>
@@ -7926,13 +7908,13 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B415" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C415">
-        <v>3.36</v>
+        <v>5.72</v>
       </c>
       <c r="D415">
         <v>1</v>
@@ -7940,13 +7922,13 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B416" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C416">
-        <v>2.34</v>
+        <v>5.72</v>
       </c>
       <c r="D416">
         <v>1</v>
@@ -7954,13 +7936,13 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B417" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C417">
-        <v>2.85</v>
+        <v>3.99</v>
       </c>
       <c r="D417">
         <v>1</v>
@@ -7968,13 +7950,13 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B418" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C418">
-        <v>2.34</v>
+        <v>5.7</v>
       </c>
       <c r="D418">
         <v>1</v>
@@ -7982,13 +7964,13 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B419" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C419">
-        <v>5.72</v>
+        <v>5.69</v>
       </c>
       <c r="D419">
         <v>1</v>
@@ -7996,13 +7978,13 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B420" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C420">
-        <v>5.72</v>
+        <v>5.7</v>
       </c>
       <c r="D420">
         <v>1</v>
@@ -8010,13 +7992,13 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B421" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C421">
-        <v>3.99</v>
+        <v>5.72</v>
       </c>
       <c r="D421">
         <v>1</v>
@@ -8024,13 +8006,13 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B422" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C422">
-        <v>5.7</v>
+        <v>2.87</v>
       </c>
       <c r="D422">
         <v>1</v>
@@ -8038,13 +8020,13 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B423" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C423">
-        <v>5.69</v>
+        <v>2.83</v>
       </c>
       <c r="D423">
         <v>1</v>
@@ -8052,13 +8034,13 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B424" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C424">
-        <v>5.7</v>
+        <v>2.87</v>
       </c>
       <c r="D424">
         <v>1</v>
@@ -8066,13 +8048,13 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B425" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C425">
-        <v>5.72</v>
+        <v>2.83</v>
       </c>
       <c r="D425">
         <v>1</v>
@@ -8080,13 +8062,13 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B426" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C426">
-        <v>2.87</v>
+        <v>6.45</v>
       </c>
       <c r="D426">
         <v>1</v>
@@ -8094,13 +8076,13 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B427" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C427">
-        <v>2.83</v>
+        <v>6.47</v>
       </c>
       <c r="D427">
         <v>1</v>
@@ -8108,13 +8090,13 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B428" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C428">
-        <v>2.87</v>
+        <v>6.51</v>
       </c>
       <c r="D428">
         <v>1</v>
@@ -8122,13 +8104,13 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B429" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C429">
-        <v>2.83</v>
+        <v>6.59</v>
       </c>
       <c r="D429">
         <v>1</v>
@@ -8136,13 +8118,13 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B430" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C430">
-        <v>6.45</v>
+        <v>4.38</v>
       </c>
       <c r="D430">
         <v>1</v>
@@ -8150,13 +8132,13 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B431" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C431">
-        <v>6.47</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="D431">
         <v>1</v>
@@ -8164,13 +8146,13 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B432" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C432">
-        <v>6.51</v>
+        <v>4.38</v>
       </c>
       <c r="D432">
         <v>1</v>
@@ -8178,13 +8160,13 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B433" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C433">
-        <v>6.59</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="D433">
         <v>1</v>
@@ -8192,13 +8174,13 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B434" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C434">
-        <v>4.38</v>
+        <v>4.53</v>
       </c>
       <c r="D434">
         <v>1</v>
@@ -8206,13 +8188,13 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B435" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C435">
-        <v>2.1800000000000002</v>
+        <v>4.5</v>
       </c>
       <c r="D435">
         <v>1</v>
@@ -8220,13 +8202,13 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B436" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C436">
-        <v>4.38</v>
+        <v>4.49</v>
       </c>
       <c r="D436">
         <v>1</v>
@@ -8234,13 +8216,13 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B437" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C437">
-        <v>2.1800000000000002</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="D437">
         <v>1</v>
@@ -8248,13 +8230,13 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B438" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C438">
-        <v>4.53</v>
+        <v>4.43</v>
       </c>
       <c r="D438">
         <v>1</v>
@@ -8262,13 +8244,13 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B439" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C439">
-        <v>4.5</v>
+        <v>4.43</v>
       </c>
       <c r="D439">
         <v>1</v>
@@ -8276,13 +8258,13 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B440" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C440">
-        <v>4.49</v>
+        <v>2.93</v>
       </c>
       <c r="D440">
         <v>1</v>
@@ -8290,13 +8272,13 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B441" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C441">
-        <v>4.4400000000000004</v>
+        <v>2.96</v>
       </c>
       <c r="D441">
         <v>1</v>
@@ -8304,13 +8286,13 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B442" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C442">
-        <v>4.43</v>
+        <v>2.99</v>
       </c>
       <c r="D442">
         <v>1</v>
@@ -8318,13 +8300,13 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B443" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C443">
-        <v>4.43</v>
+        <v>2.94</v>
       </c>
       <c r="D443">
         <v>1</v>
@@ -8332,13 +8314,13 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B444" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C444">
-        <v>2.93</v>
+        <v>2.92</v>
       </c>
       <c r="D444">
         <v>1</v>
@@ -8346,13 +8328,13 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B445" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C445">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="D445">
         <v>1</v>
@@ -8360,13 +8342,13 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B446" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C446">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="D446">
         <v>1</v>
@@ -8374,13 +8356,13 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B447" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C447">
-        <v>2.94</v>
+        <v>1.77</v>
       </c>
       <c r="D447">
         <v>1</v>
@@ -8388,13 +8370,13 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B448" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="C448">
-        <v>2.92</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="D448">
         <v>1</v>
@@ -8402,13 +8384,13 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B449" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="C449">
-        <v>2.92</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D449">
         <v>1</v>
@@ -8416,13 +8398,13 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B450" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="C450">
-        <v>3.04</v>
+        <v>1.18</v>
       </c>
       <c r="D450">
         <v>1</v>
@@ -8430,13 +8412,13 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B451" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="C451">
-        <v>1.77</v>
+        <v>1.3</v>
       </c>
       <c r="D451">
         <v>1</v>
@@ -8444,13 +8426,13 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B452" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C452">
-        <v>2.2400000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="D452">
         <v>1</v>
@@ -8458,13 +8440,13 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B453" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C453">
-        <v>2.2000000000000002</v>
+        <v>3.26</v>
       </c>
       <c r="D453">
         <v>1</v>
@@ -8472,13 +8454,13 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B454" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C454">
-        <v>1.18</v>
+        <v>0.74</v>
       </c>
       <c r="D454">
         <v>1</v>
@@ -8486,13 +8468,13 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B455" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C455">
-        <v>1.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D455">
         <v>1</v>
@@ -8500,13 +8482,13 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B456" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C456">
-        <v>3.3</v>
+        <v>0.38</v>
       </c>
       <c r="D456">
         <v>1</v>
@@ -8514,13 +8496,13 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B457" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C457">
-        <v>3.26</v>
+        <v>1.99</v>
       </c>
       <c r="D457">
         <v>1</v>
@@ -8528,13 +8510,13 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B458" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C458">
-        <v>0.74</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="D458">
         <v>1</v>
@@ -8542,13 +8524,13 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B459" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C459">
-        <v>0.28999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D459">
         <v>1</v>
@@ -8556,13 +8538,13 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B460" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C460">
-        <v>0.38</v>
+        <v>1.55</v>
       </c>
       <c r="D460">
         <v>1</v>
@@ -8570,13 +8552,13 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B461" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C461">
-        <v>1.99</v>
+        <v>1.73</v>
       </c>
       <c r="D461">
         <v>1</v>
@@ -8584,13 +8566,13 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B462" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C462">
-        <v>2.2400000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="D462">
         <v>1</v>
@@ -8598,13 +8580,13 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B463" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C463">
-        <v>2.2000000000000002</v>
+        <v>3.26</v>
       </c>
       <c r="D463">
         <v>1</v>
@@ -8612,13 +8594,13 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B464" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C464">
-        <v>1.55</v>
+        <v>1.99</v>
       </c>
       <c r="D464">
         <v>1</v>
@@ -8626,13 +8608,13 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B465" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C465">
-        <v>1.73</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="D465">
         <v>1</v>
@@ -8640,13 +8622,13 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B466" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C466">
-        <v>3.3</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="D466">
         <v>1</v>
@@ -8654,13 +8636,13 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B467" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C467">
-        <v>3.26</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="D467">
         <v>1</v>
@@ -8668,13 +8650,13 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B468" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C468">
-        <v>1.99</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D468">
         <v>1</v>
@@ -8682,13 +8664,13 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B469" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C469">
-        <v>2.2400000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D469">
         <v>1</v>
@@ -8696,13 +8678,13 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B470" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C470">
-        <v>2.2400000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D470">
         <v>1</v>
@@ -8710,13 +8692,13 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B471" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C471">
-        <v>2.2400000000000002</v>
+        <v>1.98</v>
       </c>
       <c r="D471">
         <v>1</v>
@@ -8724,13 +8706,13 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B472" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C472">
-        <v>2.2000000000000002</v>
+        <v>2.09</v>
       </c>
       <c r="D472">
         <v>1</v>
@@ -8738,13 +8720,13 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B473" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C473">
-        <v>2.2000000000000002</v>
+        <v>2.31</v>
       </c>
       <c r="D473">
         <v>1</v>
@@ -8752,10 +8734,10 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B474" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C474">
         <v>2.2000000000000002</v>
@@ -8766,13 +8748,13 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B475" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C475">
-        <v>1.98</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="D475">
         <v>1</v>
@@ -8780,13 +8762,13 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B476" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C476">
-        <v>2.09</v>
+        <v>2.57</v>
       </c>
       <c r="D476">
         <v>1</v>
@@ -8794,13 +8776,13 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B477" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C477">
-        <v>2.31</v>
+        <v>3.3</v>
       </c>
       <c r="D477">
         <v>1</v>
@@ -8808,13 +8790,13 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B478" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C478">
-        <v>2.2000000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="D478">
         <v>1</v>
@@ -8822,13 +8804,13 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B479" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C479">
-        <v>2.3199999999999998</v>
+        <v>3.3</v>
       </c>
       <c r="D479">
         <v>1</v>
@@ -8836,13 +8818,13 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B480" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C480">
-        <v>2.57</v>
+        <v>3.3</v>
       </c>
       <c r="D480">
         <v>1</v>
@@ -8850,10 +8832,10 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B481" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C481">
         <v>3.3</v>
@@ -8864,10 +8846,10 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B482" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C482">
         <v>3.3</v>
@@ -8878,13 +8860,13 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B483" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C483">
-        <v>3.3</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D483">
         <v>1</v>
@@ -8892,13 +8874,13 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B484" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C484">
-        <v>3.3</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D484">
         <v>1</v>
@@ -8906,13 +8888,13 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B485" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C485">
-        <v>3.3</v>
+        <v>0.32</v>
       </c>
       <c r="D485">
         <v>1</v>
@@ -8920,13 +8902,13 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B486" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C486">
-        <v>3.3</v>
+        <v>1.49</v>
       </c>
       <c r="D486">
         <v>1</v>
@@ -8934,13 +8916,13 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B487" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C487">
-        <v>2.2599999999999998</v>
+        <v>0.7</v>
       </c>
       <c r="D487">
         <v>1</v>
@@ -8948,13 +8930,13 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B488" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C488">
-        <v>2.2599999999999998</v>
+        <v>0.7</v>
       </c>
       <c r="D488">
         <v>1</v>
@@ -8962,13 +8944,13 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B489" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C489">
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
       <c r="D489">
         <v>1</v>
@@ -8976,13 +8958,13 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B490" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C490">
-        <v>1.49</v>
+        <v>0.64</v>
       </c>
       <c r="D490">
         <v>1</v>
@@ -8990,13 +8972,13 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B491" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C491">
-        <v>0.7</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D491">
         <v>1</v>
@@ -9004,13 +8986,13 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B492" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C492">
-        <v>0.7</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D492">
         <v>1</v>
@@ -9018,13 +9000,13 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B493" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C493">
-        <v>0.64</v>
+        <v>0.98</v>
       </c>
       <c r="D493">
         <v>1</v>
@@ -9032,13 +9014,13 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B494" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C494">
-        <v>0.64</v>
+        <v>0.98</v>
       </c>
       <c r="D494">
         <v>1</v>
@@ -9046,13 +9028,13 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B495" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C495">
-        <v>0.55000000000000004</v>
+        <v>0.98</v>
       </c>
       <c r="D495">
         <v>1</v>
@@ -9060,13 +9042,13 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B496" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C496">
-        <v>0.55000000000000004</v>
+        <v>0.98</v>
       </c>
       <c r="D496">
         <v>1</v>
@@ -9074,13 +9056,13 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B497" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C497">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="D497">
         <v>1</v>
@@ -9088,13 +9070,13 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B498" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C498">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="D498">
         <v>1</v>
@@ -9102,13 +9084,13 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B499" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C499">
-        <v>0.98</v>
+        <v>0.69</v>
       </c>
       <c r="D499">
         <v>1</v>
@@ -9116,13 +9098,13 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B500" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C500">
-        <v>0.98</v>
+        <v>0.69</v>
       </c>
       <c r="D500">
         <v>1</v>
@@ -9130,13 +9112,13 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B501" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C501">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D501">
         <v>1</v>
@@ -9144,13 +9126,13 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B502" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C502">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D502">
         <v>1</v>
@@ -9158,13 +9140,13 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B503" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C503">
-        <v>0.69</v>
+        <v>0.98</v>
       </c>
       <c r="D503">
         <v>1</v>
@@ -9172,13 +9154,13 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B504" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C504">
-        <v>0.69</v>
+        <v>0.98</v>
       </c>
       <c r="D504">
         <v>1</v>
@@ -9186,13 +9168,13 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B505" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C505">
-        <v>0.55000000000000004</v>
+        <v>1.06</v>
       </c>
       <c r="D505">
         <v>1</v>
@@ -9200,13 +9182,13 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B506" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C506">
-        <v>0.55000000000000004</v>
+        <v>0.77</v>
       </c>
       <c r="D506">
         <v>1</v>
@@ -9214,13 +9196,13 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B507" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C507">
-        <v>0.98</v>
+        <v>0.34</v>
       </c>
       <c r="D507">
         <v>1</v>
@@ -9228,13 +9210,13 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B508" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C508">
-        <v>0.98</v>
+        <v>0.36</v>
       </c>
       <c r="D508">
         <v>1</v>
@@ -9242,13 +9224,13 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B509" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C509">
-        <v>1.06</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D509">
         <v>1</v>
@@ -9256,13 +9238,13 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B510" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C510">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="D510">
         <v>1</v>
@@ -9270,13 +9252,13 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B511" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="C511">
-        <v>0.34</v>
+        <v>0.09</v>
       </c>
       <c r="D511">
         <v>1</v>
@@ -9284,13 +9266,13 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B512" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C512">
-        <v>0.36</v>
+        <v>1.2</v>
       </c>
       <c r="D512">
         <v>1</v>
@@ -9298,13 +9280,13 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B513" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C513">
-        <v>0.56999999999999995</v>
+        <v>0.75</v>
       </c>
       <c r="D513">
         <v>1</v>
@@ -9312,13 +9294,13 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B514" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C514">
-        <v>3.84</v>
+        <v>2.95</v>
       </c>
       <c r="D514">
         <v>1</v>
@@ -9326,13 +9308,13 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B515" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C515">
-        <v>3.79</v>
+        <v>1.56</v>
       </c>
       <c r="D515">
         <v>1</v>
@@ -9340,13 +9322,13 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B516" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C516">
-        <v>0.64</v>
+        <v>0.34</v>
       </c>
       <c r="D516">
         <v>1</v>
@@ -9354,13 +9336,13 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B517" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C517">
-        <v>0.67</v>
+        <v>2.95</v>
       </c>
       <c r="D517">
         <v>1</v>
@@ -9368,13 +9350,13 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B518" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C518">
-        <v>2.35</v>
+        <v>3.53</v>
       </c>
       <c r="D518">
         <v>1</v>
@@ -9382,13 +9364,13 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B519" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C519">
-        <v>4.74</v>
+        <v>0.35</v>
       </c>
       <c r="D519">
         <v>1</v>
@@ -9396,13 +9378,13 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B520" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C520">
-        <v>0.43</v>
+        <v>1.18</v>
       </c>
       <c r="D520">
         <v>1</v>
@@ -9410,13 +9392,13 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B521" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C521">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
       <c r="D521">
         <v>1</v>
@@ -9424,13 +9406,13 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B522" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="C522">
-        <v>3.85</v>
+        <v>5.56</v>
       </c>
       <c r="D522">
         <v>1</v>
@@ -9438,13 +9420,13 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B523" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="C523">
-        <v>3.37</v>
+        <v>6.36</v>
       </c>
       <c r="D523">
         <v>1</v>
@@ -9452,13 +9434,13 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B524" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="C524">
-        <v>0.98</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="D524">
         <v>1</v>
@@ -9466,13 +9448,13 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B525" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C525">
-        <v>0.09</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="D525">
         <v>1</v>
@@ -9480,13 +9462,13 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B526" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="C526">
-        <v>1.2</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="D526">
         <v>1</v>
@@ -9494,13 +9476,13 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B527" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="C527">
-        <v>0.84</v>
+        <v>7.98</v>
       </c>
       <c r="D527">
         <v>1</v>
@@ -9508,13 +9490,13 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B528" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="C528">
-        <v>0.32</v>
+        <v>3.78</v>
       </c>
       <c r="D528">
         <v>1</v>
@@ -9522,13 +9504,13 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B529" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C529">
-        <v>5.56</v>
+        <v>3.55</v>
       </c>
       <c r="D529">
         <v>1</v>
@@ -9536,13 +9518,13 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B530" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C530">
-        <v>6.36</v>
+        <v>10.5</v>
       </c>
       <c r="D530">
         <v>1</v>
@@ -9550,13 +9532,13 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B531" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C531">
-        <v>9.8699999999999992</v>
+        <v>10.5</v>
       </c>
       <c r="D531">
         <v>1</v>
@@ -9564,13 +9546,13 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B532" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C532">
-        <v>8.7200000000000006</v>
+        <v>6.98</v>
       </c>
       <c r="D532">
         <v>1</v>
@@ -9578,13 +9560,13 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B533" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C533">
-        <v>8.0299999999999994</v>
+        <v>9.19</v>
       </c>
       <c r="D533">
         <v>1</v>
@@ -9592,13 +9574,13 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B534" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C534">
-        <v>7.98</v>
+        <v>6.62</v>
       </c>
       <c r="D534">
         <v>1</v>
@@ -9606,13 +9588,13 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B535" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C535">
-        <v>3.78</v>
+        <v>5.15</v>
       </c>
       <c r="D535">
         <v>1</v>
@@ -9620,13 +9602,13 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B536" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C536">
-        <v>3.55</v>
+        <v>6.98</v>
       </c>
       <c r="D536">
         <v>1</v>
@@ -9634,10 +9616,10 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B537" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C537">
         <v>10.5</v>
@@ -9648,10 +9630,10 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B538" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C538">
         <v>10.5</v>
@@ -9662,13 +9644,13 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B539" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C539">
-        <v>6.98</v>
+        <v>8.61</v>
       </c>
       <c r="D539">
         <v>1</v>
@@ -9676,13 +9658,13 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B540" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C540">
-        <v>9.19</v>
+        <v>16.79</v>
       </c>
       <c r="D540">
         <v>1</v>
@@ -9690,13 +9672,13 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B541" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C541">
-        <v>6.62</v>
+        <v>8.9</v>
       </c>
       <c r="D541">
         <v>1</v>
@@ -9704,136 +9686,23 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B542" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C542">
-        <v>5.15</v>
+        <v>13.7</v>
       </c>
       <c r="D542">
         <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A543" t="s">
-        <v>390</v>
-      </c>
-      <c r="B543" t="s">
-        <v>239</v>
-      </c>
-      <c r="C543">
-        <v>6.98</v>
-      </c>
-      <c r="D543">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A544" t="s">
-        <v>390</v>
-      </c>
-      <c r="B544" t="s">
-        <v>239</v>
-      </c>
-      <c r="C544">
-        <v>10.5</v>
-      </c>
-      <c r="D544">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A545" t="s">
-        <v>390</v>
-      </c>
-      <c r="B545" t="s">
-        <v>239</v>
-      </c>
-      <c r="C545">
-        <v>10.5</v>
-      </c>
-      <c r="D545">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A546" t="s">
-        <v>390</v>
-      </c>
-      <c r="B546" t="s">
-        <v>239</v>
-      </c>
-      <c r="C546">
-        <v>10.02</v>
-      </c>
-      <c r="D546">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A547" t="s">
-        <v>390</v>
-      </c>
-      <c r="B547" t="s">
-        <v>239</v>
-      </c>
-      <c r="C547">
-        <v>16.79</v>
-      </c>
-      <c r="D547">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A548" t="s">
-        <v>390</v>
-      </c>
-      <c r="B548" t="s">
-        <v>239</v>
-      </c>
-      <c r="C548">
-        <v>8.1</v>
-      </c>
-      <c r="D548">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A549" t="s">
-        <v>391</v>
-      </c>
-      <c r="B549" t="s">
-        <v>239</v>
-      </c>
-      <c r="C549">
-        <v>13.7</v>
-      </c>
-      <c r="D549">
-        <v>1</v>
-      </c>
-      <c r="G549">
-        <f>0.7*2.15*5.3</f>
-        <v>7.9764999999999988</v>
-      </c>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C550">
-        <f>SUBTOTAL(109,表格1[欄3])</f>
-        <v>1685.610000000001</v>
-      </c>
-      <c r="D550">
-        <f>SUBTOTAL(109,表格1[欄4])</f>
-        <v>545</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>